--- a/data/city_permits/raw/city_2016.xlsx
+++ b/data/city_permits/raw/city_2016.xlsx
@@ -39190,7 +39190,7 @@
       </c>
       <c s="5" t="inlineStr" r="E934">
         <is>
-          <t xml:space="preserve">3</t>
+          <t xml:space="preserve">2</t>
         </is>
       </c>
       <c s="7" t="str" r="F934"/>

--- a/data/city_permits/raw/city_2016.xlsx
+++ b/data/city_permits/raw/city_2016.xlsx
@@ -257,14 +257,14 @@
         </is>
       </c>
       <c s="2" r="H1">
-        <v>42621</v>
+        <v>42626</v>
       </c>
     </row>
     <row r="2" ht="1" customHeight="1"/>
     <row r="3" ht="18" customHeight="1">
       <c s="1" t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">For Permits Issued 01/01/2016 through 08/31/2016</t>
+          <t xml:space="preserve">For Permits Issued 1/1/2016 through 8/31/2016</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c s="5" t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">3</t>
+          <t xml:space="preserve">2</t>
         </is>
       </c>
       <c s="7" t="str" r="F17"/>
@@ -1085,11 +1085,7 @@
           <t xml:space="preserve">BNSFR - New Single Family Residence</t>
         </is>
       </c>
-      <c s="5" t="inlineStr" r="J24">
-        <is>
-          <t xml:space="preserve">2 Gas Fireplaces</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J24"/>
     </row>
     <row r="25" ht="18" customHeight="0">
       <c s="5" t="inlineStr" r="A25">
